--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -119,8 +119,7 @@
           </rPr>
           <t>执行方式
 1：验证 关键字段值
-2：.验证 响应字段列表
-3.：验证 上述两项</t>
+2：.验证 关键字段值、响应字段列表</t>
         </r>
       </text>
     </comment>
@@ -226,111 +225,6 @@
             <charset val="128"/>
           </rPr>
           <t>用例状态</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>响应信息</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>实际的关键字段值</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>关键字段值比较结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>响应字段列表比较结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>测试结果</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>创建时间</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>更新时间</t>
         </r>
       </text>
     </comment>
@@ -339,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -376,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["status","code","msg","data","pro_name","browser_name"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试带参数的get请求</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
@@ -403,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["status","code","msg","data","test_str","test_bool"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/test/test_post_request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["status","code","msg","data","test_str","test_int","response_list","respone_dict","response_list_dict","name","age","sex"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,38 +368,6 @@
   </si>
   <si>
     <t>depend_field_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>response_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actual_core_field_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_core_field_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_field_name_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -540,6 +390,22 @@
   </si>
   <si>
     <t>请求成功,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,pro_name,browser_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,test_str,test_bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,test_str,test_int,response_list,reponse_dict,response_list_dict,name,age,sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,78 +810,50 @@
     <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>3</v>
@@ -1035,78 +873,78 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -117,7 +117,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>执行方式
+          <t>验证模式
 1：验证 关键字段值
 2：.验证 关键字段值、响应字段列表</t>
         </r>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exec_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>compare_core_field_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +402,10 @@
   </si>
   <si>
     <t>status,code,msg,data,test_str,test_int,response_list,reponse_dict,response_list_dict,name,age,sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify_mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,7 +802,7 @@
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
@@ -829,28 +829,28 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="4" t="b">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4" t="b">
         <v>1</v>
@@ -928,13 +928,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -351,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>compare_field_name_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>depend_interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +402,10 @@
   </si>
   <si>
     <t>verify_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_field_name_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,7 +829,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -838,19 +838,19 @@
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="4" t="b">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="4" t="b">
         <v>1</v>
@@ -928,13 +928,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -331,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>request_method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>request_header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +402,10 @@
   </si>
   <si>
     <t>expect_field_name_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,15 +791,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
@@ -820,37 +820,37 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="4" t="b">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4" t="b">
         <v>1</v>
@@ -928,13 +928,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18460" yWindow="4160" windowWidth="32220" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="11100" yWindow="4620" windowWidth="32220" windowHeight="19340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -209,21 +209,6 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖字段值</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
           <t>用例状态</t>
         </r>
       </text>
@@ -233,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -254,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/test/test_get_request_no_paparms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>depend_field_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>msg,sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +383,10 @@
   </si>
   <si>
     <t>request_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/test_get_request_no_params</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,16 +770,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
@@ -808,143 +789,139 @@
     <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="4" t="b">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="4620" windowWidth="32220" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="7300" windowWidth="32220" windowHeight="19340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>待比较关键字段名</t>
+          <t>待比较关键字段名列表</t>
         </r>
       </text>
     </comment>
@@ -149,7 +149,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>期望的关键字段值</t>
+          <t>期望的关键字段值列表</t>
         </r>
       </text>
     </comment>
@@ -179,7 +179,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖接口名称</t>
+          <t>依赖接口名称列表</t>
         </r>
       </text>
     </comment>
@@ -194,7 +194,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖字段名</t>
+          <t>依赖字段名列表</t>
         </r>
       </text>
     </comment>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -243,14 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例执行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试带参数的get请求</t>
     <rPh sb="0" eb="1">
       <t>ce'shi</t>
@@ -320,44 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>compare_core_field_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_core_field_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend_interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend_field_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg,sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步成功,True</t>
-    <rPh sb="0" eb="1">
-      <t>tong'bu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'g</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg,test_int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求成功,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>case_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status,code,msg,data,test_str,test_int,response_list,reponse_dict,response_list_dict,name,age,sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>verify_mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,6 +337,40 @@
   </si>
   <si>
     <t>/test/test_get_request_no_params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare_core_field_name_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_core_field_value_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_interface_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_field_name_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code,status,msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31200,success,请求成功</t>
+    <rPh sb="14" eb="15">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cheng'gogn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,test_str,test_int,response_list,response_dict,response_list_dict,name,age,sex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,50 +768,50 @@
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -835,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -844,13 +828,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="b">
         <v>0</v>
@@ -858,28 +842,28 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L3" s="4" t="b">
         <v>1</v>
@@ -887,28 +871,28 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>27</v>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="7300" windowWidth="32220" windowHeight="19340" tabRatio="500"/>
+    <workbookView xWindow="3080" yWindow="0" windowWidth="24600" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -262,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/test/test_get_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/test/test_post_request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,22 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interface_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status,code,msg,data,pro_name,browser_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status,code,msg,data,test_str,test_bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>verify_mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,10 +325,6 @@
   </si>
   <si>
     <t>depend_field_name_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code,status,msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +339,130 @@
   </si>
   <si>
     <t>status,code,msg,data,test_str,test_int,response_list,response_dict,response_list_dict,name,age,sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取图片</t>
+    <rPh sb="0" eb="1">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/test_get_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/get_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖get</t>
+    <rPh sb="0" eb="1">
+      <t>yi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/depend_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?image_id=IMAGE_ID&amp;token=TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录,获取图片</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo'q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖post</t>
+    <rPh sb="0" eb="1">
+      <t>yi'lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code,status,msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,pro_name,browser_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,test_str,test_bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"messi","passwd":"messi"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?token=TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-param-TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-param-TOKEN,2-param-IMAGE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/depend_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": CONTENT_TYPE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"image_id":IMAGE_ID,"token":TOKEN}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-param-TOKEN,1-header-CONTENT_TYPE,2-param-IMAGE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,46 +864,46 @@
     <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -819,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -828,13 +920,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="L2" s="4" t="b">
         <v>0</v>
@@ -845,25 +937,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L3" s="4" t="b">
         <v>1</v>
@@ -871,37 +963,149 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="0" windowWidth="24600" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="16240" yWindow="11640" windowWidth="27000" windowHeight="12920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>依赖接口名称列表</t>
+          <t>是否为依赖接口</t>
         </r>
       </text>
     </comment>
@@ -199,6 +199,21 @@
       </text>
     </comment>
     <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>依赖等级（数字越小越先执行）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>测试不带参数的get请求</t>
     <rPh sb="0" eb="1">
@@ -320,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>depend_interface_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>depend_field_name_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,10 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status,code,msg,data,test_str,test_int,response_list,response_dict,response_list_dict,name,age,sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取图片</t>
     <rPh sb="0" eb="1">
       <t>huo'q</t>
@@ -386,23 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?image_id=IMAGE_ID&amp;token=TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录,获取图片</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>huo'q</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tu'p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>依赖post</t>
     <rPh sb="0" eb="1">
       <t>yi'lai</t>
@@ -438,31 +428,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?token=TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-param-TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-param-TOKEN,2-param-IMAGE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/test/depend_post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type": CONTENT_TYPE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"image_id":IMAGE_ID,"token":TOKEN}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-param-TOKEN,1-header-CONTENT_TYPE,2-param-IMAGE_ID</t>
+    <t>is_depend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status,code,msg,data,name,age,sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token,content-type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?token={{token}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?image_id={{image_id}}&amp;token={{token}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "{{content-type}}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,13 +864,13 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="117.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="97" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,17 +898,20 @@
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -920,48 +925,45 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="4" t="b">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="4" t="b">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -969,120 +971,120 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>42</v>
@@ -1094,22 +1096,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -233,246 +233,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+  <si>
+    <t>interface_name</t>
+  </si>
+  <si>
+    <t>interface_url</t>
+  </si>
+  <si>
+    <t>request_method</t>
+  </si>
+  <si>
+    <t>request_header</t>
+  </si>
+  <si>
+    <t>request_params</t>
+  </si>
+  <si>
+    <t>verify_mode</t>
+  </si>
+  <si>
+    <t>compare_core_field_name_list</t>
+  </si>
+  <si>
+    <t>expect_core_field_value_list</t>
+  </si>
+  <si>
+    <t>expect_field_name_list</t>
+  </si>
+  <si>
+    <t>is_depend</t>
+  </si>
+  <si>
+    <t>depend_field_name_list</t>
+  </si>
+  <si>
+    <t>depend_level</t>
+  </si>
+  <si>
+    <t>case_status</t>
+  </si>
   <si>
     <t>测试不带参数的get请求</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu'dai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>can'sh</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>d</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>qing'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/test_get_request_no_params</t>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code,status,msg</t>
+  </si>
+  <si>
+    <t>31200,success,请求成功</t>
+  </si>
+  <si>
+    <t>status,code,msg,data,pro_name,browser_name</t>
   </si>
   <si>
     <t>测试带参数的get请求</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>can'sh</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>qing'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/test_get_request</t>
+  </si>
+  <si>
+    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
+  </si>
+  <si>
+    <t>status,code,msg,data,test_str,test_bool</t>
+  </si>
+  <si>
+    <t>测试post请求</t>
   </si>
   <si>
     <t>/test/test_post_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试post请求</t>
-    <rPh sb="0" eb="1">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qing'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interface_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verify_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_field_name_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/test_get_request_no_params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compare_core_field_name_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_core_field_value_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend_field_name_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31200,success,请求成功</t>
-    <rPh sb="14" eb="15">
-      <t>qing'q</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>cheng'gogn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
+  </si>
+  <si>
+    <t>status,code,msg,data,name,age,sex</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>/test/login</t>
+  </si>
+  <si>
+    <t>{"name":"messi","passwd":"messi"}</t>
+  </si>
+  <si>
+    <t>token,content-type</t>
   </si>
   <si>
     <t>获取图片</t>
-    <rPh sb="0" eb="1">
-      <t>huo'q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tu'p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/test_get_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?test_str=接口自动化测试&amp;test_int=5&amp;test_bool=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/test/get_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?token={{token}}</t>
+  </si>
+  <si>
+    <t>image_id</t>
   </si>
   <si>
     <t>依赖get</t>
-    <rPh sb="0" eb="1">
-      <t>yi'l</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/test/depend_get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?image_id={{image_id}}&amp;token={{token}}</t>
+  </si>
+  <si>
+    <t>依赖get2</t>
+  </si>
+  <si>
+    <t>/test/depend_get2/{{image_id}}</t>
   </si>
   <si>
     <t>依赖post</t>
-    <rPh sb="0" eb="1">
-      <t>yi'lai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code,status,msg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status,code,msg,data,pro_name,browser_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status,code,msg,data,test_str,test_bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"test_str":"post测试","test_int":5,"test_bool":"true"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/test/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"messi","passwd":"messi"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/test/depend_post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_depend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depend_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status,code,msg,data,name,age,sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token,content-type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?token={{token}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?image_id={{image_id}}&amp;token={{token}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type": "{{content-type}}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,15 +420,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
@@ -535,6 +431,23 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC65911"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -559,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,10 +480,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -848,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,242 +784,355 @@
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
-      <c r="M6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="11640" windowWidth="27000" windowHeight="12920" tabRatio="500"/>
+    <workbookView xWindow="15420" yWindow="11000" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,81 +32,6 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>接口名称</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>接口地址</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>请求方式</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>请求头文件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>请求参数</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F1" authorId="0">
       <text>
         <r>
@@ -120,81 +45,6 @@
           <t>验证模式
 1：验证 关键字段值
 2：.验证 关键字段值、响应字段列表</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>待比较关键字段名列表</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>期望的关键字段值列表</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>待比较响应字段列表</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>是否为依赖接口</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>依赖字段名列表</t>
         </r>
       </text>
     </comment>
@@ -213,7 +63,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>验证模式
+1：验证 关键字段值
+2：.验证 关键字段值、响应字段列表</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +90,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t>用例状态</t>
+          <t>依赖等级（数字越小越先执行）</t>
         </r>
       </text>
     </comment>
@@ -233,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>interface_name</t>
   </si>
@@ -371,6 +237,181 @@
   </si>
   <si>
     <t>{"image_id":"{{image_id}}", token":"{{token}}"}</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <rPh sb="0" eb="1">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <rPh sb="0" eb="1">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <rPh sb="0" eb="1">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求头文件</t>
+    <rPh sb="0" eb="1">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数</t>
+    <rPh sb="0" eb="1">
+      <t>qing'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证模式</t>
+    <rPh sb="0" eb="1">
+      <t>yan'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待比较关键字段名列表</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bi'jiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'j'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望的关键字段值列表</t>
+    <rPh sb="0" eb="1">
+      <t>qi'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>guan'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望的响应字段值列表</t>
+    <rPh sb="0" eb="1">
+      <t>qi'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'duan'zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为依赖接口</t>
+    <rPh sb="0" eb="1">
+      <t>shi'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖字段名列表</t>
+    <rPh sb="0" eb="1">
+      <t>yi'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'duan'm</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lie'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖等级</t>
+    <rPh sb="0" eb="1">
+      <t>yi'lai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例状态</t>
+    <rPh sb="0" eb="1">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,100 +819,109 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="97" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -880,28 +930,28 @@
         <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
@@ -913,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -922,10 +972,10 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
@@ -934,38 +984,40 @@
         <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -975,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5" t="b">
         <v>1</v>
@@ -986,46 +1038,48 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1044,19 +1098,17 @@
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1074,14 +1126,30 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1118,7 +1186,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1133,6 +1201,21 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -418,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,15 +452,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="4"/>
@@ -476,17 +467,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC65911"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFD70000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF7030A0"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -513,19 +522,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,7 +818,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,395 +838,395 @@
     <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="b">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="b">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="b">
+      <c r="M6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="b">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="M7" s="5" t="b">
+      <c r="M7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/api_case_tmpl.xlsx
+++ b/api_case_tmpl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3040" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
+    <workbookView xWindow="3280" yWindow="2920" windowWidth="29080" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>interface_name</t>
   </si>
@@ -435,6 +435,33 @@
   <si>
     <t>{"Content-Type": "{{content-type}}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_post接口</t>
+  </si>
+  <si>
+    <t>/test/form_post</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
+  </si>
+  <si>
+    <t>{"form_name":"test_form_post_112233"}</t>
+  </si>
+  <si>
+    <t>msg,code</t>
+  </si>
+  <si>
+    <t>请求成功,31200</t>
+  </si>
+  <si>
+    <t>json_post接口</t>
+  </si>
+  <si>
+    <t>/test/json_post</t>
+  </si>
+  <si>
+    <t>{"json_name":"test_json_name_556677"}</t>
   </si>
 </sst>
 </file>
@@ -849,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,7 +887,7 @@
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
@@ -872,7 +899,7 @@
     <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -913,7 +940,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -954,7 +981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -985,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1043,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1076,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1082,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1142,7 +1169,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1198,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
@@ -1205,13 +1232,8 @@
       <c r="M10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -1243,41 +1265,76 @@
       <c r="M11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
